--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_21.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_25_21.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>763578.7735701591</v>
+        <v>761199.8493651554</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,13 +656,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>24.62149822509145</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,19 +707,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>17.35112070699443</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -756,7 +756,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247723</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,7 +820,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>45.10343029383384</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,13 +829,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>61.36917500887014</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>407.8895948559962</v>
       </c>
       <c r="H5" t="n">
-        <v>95.18998992216596</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -962,7 +962,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1105,16 +1105,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>54.89730876502406</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>121.8713578254458</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1130,10 +1130,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>210.0946544764302</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,22 +1181,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>270.5139490778472</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1288,22 +1288,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>117.7126336312586</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>58.28185552386348</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1339,16 +1339,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187879</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695521</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.022230457616</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1430,7 +1430,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174154</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128544</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1525,16 +1525,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>104.09420939086</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>17.26253258678083</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>-7.918288247310557e-12</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1667,7 +1667,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174136</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819354</v>
       </c>
       <c r="C16" t="n">
-        <v>102.6880827385254</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1822,10 +1822,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>216.6856552554214</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2056,19 +2056,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>243.189427561212</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>37.11414892142423</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520957</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,7 +2239,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,16 +2248,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>3.261057542790041</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2290,16 +2290,16 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>59.57459295188318</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2372,7 +2372,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U23" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
         <v>327.7522584701349</v>
@@ -2479,19 +2479,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>63.84155641259165</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>19.91555826188922</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.184474389245</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,19 +2713,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>121.8000472740334</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>26.70391688093253</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2779,7 +2779,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2843,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,19 +2950,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613293</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>160.428800290701</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3083,7 +3083,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3193,16 +3193,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,7 +3241,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3253,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>73.44478684180565</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3281,7 +3281,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>99.97427419833816</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3475,7 +3475,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187859</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3664,7 +3664,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3676,10 +3676,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>0.8253826161909023</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3718,7 +3718,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
-        <v>194.9085394018857</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3901,19 +3901,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -4141,16 +4141,16 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2047.583838282732</v>
+        <v>1647.321240915451</v>
       </c>
       <c r="C2" t="n">
-        <v>1678.62132134232</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="D2" t="n">
-        <v>1320.35562273557</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E2" t="n">
-        <v>934.5673701373257</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F2" t="n">
-        <v>523.5814653477182</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H2" t="n">
-        <v>108.5090151927147</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
@@ -4331,7 +4331,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4355,25 +4355,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U2" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V2" t="n">
-        <v>3197.788768583745</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W2" t="n">
-        <v>3197.788768583745</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X2" t="n">
-        <v>2824.323010322666</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y2" t="n">
-        <v>2434.183678346854</v>
+        <v>1672.191441142816</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I3" t="n">
         <v>66.5121164321834</v>
@@ -4440,7 +4440,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4449,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2781.818466528927</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="C4" t="n">
-        <v>2781.818466528927</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="D4" t="n">
-        <v>2736.259446030105</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="E4" t="n">
-        <v>2736.259446030105</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F4" t="n">
-        <v>2736.259446030105</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H4" t="n">
-        <v>2568.556609404824</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I4" t="n">
-        <v>2471.230932223169</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
-        <v>2483.053685760608</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K4" t="n">
-        <v>2581.364540028279</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>2737.074383950636</v>
+        <v>332.3555681596505</v>
       </c>
       <c r="M4" t="n">
-        <v>2904.506865249834</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N4" t="n">
-        <v>3075.815702279681</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O4" t="n">
-        <v>3213.734051497871</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P4" t="n">
-        <v>3312.685054250629</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q4" t="n">
-        <v>3325.60582160917</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R4" t="n">
-        <v>3325.60582160917</v>
+        <v>831.0565485757129</v>
       </c>
       <c r="S4" t="n">
-        <v>3325.60582160917</v>
+        <v>639.3706644025392</v>
       </c>
       <c r="T4" t="n">
-        <v>3325.60582160917</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U4" t="n">
-        <v>3036.502954734814</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="V4" t="n">
-        <v>2781.818466528927</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="W4" t="n">
-        <v>2781.818466528927</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="X4" t="n">
-        <v>2781.818466528927</v>
+        <v>128.5011820977088</v>
       </c>
       <c r="Y4" t="n">
-        <v>2781.818466528927</v>
+        <v>66.5121164321834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1311.909787855437</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="C5" t="n">
-        <v>942.9472709150257</v>
+        <v>1569.101759311879</v>
       </c>
       <c r="D5" t="n">
-        <v>584.6815723082752</v>
+        <v>1210.836060705129</v>
       </c>
       <c r="E5" t="n">
-        <v>584.6815723082752</v>
+        <v>825.0478081068845</v>
       </c>
       <c r="F5" t="n">
-        <v>173.6956675186677</v>
+        <v>818.1023073576811</v>
       </c>
       <c r="G5" t="n">
-        <v>162.6636214040682</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
         <v>589.2106210810553</v>
@@ -4574,7 +4574,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>3072.075344883007</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2719.306689612893</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.509627919559</v>
+        <v>2345.840931351813</v>
       </c>
       <c r="Y5" t="n">
-        <v>1698.509627919559</v>
+        <v>1955.701599376001</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,37 +4647,37 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T6" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V6" t="n">
         <v>1779.608347199865</v>
@@ -4686,10 +4686,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="7">
@@ -4753,13 +4753,13 @@
         <v>639.3706644025392</v>
       </c>
       <c r="T7" t="n">
-        <v>583.9188373671614</v>
+        <v>417.6040489720652</v>
       </c>
       <c r="U7" t="n">
-        <v>583.9188373671614</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="V7" t="n">
-        <v>583.9188373671614</v>
+        <v>294.5016673302007</v>
       </c>
       <c r="W7" t="n">
         <v>294.5016673302007</v>
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2217.803762225666</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="C8" t="n">
-        <v>1848.841245285254</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D8" t="n">
-        <v>1490.575546678504</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E8" t="n">
-        <v>1104.787294080259</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F8" t="n">
-        <v>693.8013892906517</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G8" t="n">
-        <v>278.7289391356482</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4826,28 +4826,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.60582160917</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2994.542934265599</v>
+        <v>2688.538263200155</v>
       </c>
       <c r="W8" t="n">
-        <v>2994.542934265599</v>
+        <v>2335.769607930041</v>
       </c>
       <c r="X8" t="n">
-        <v>2994.542934265599</v>
+        <v>1962.303849668961</v>
       </c>
       <c r="Y8" t="n">
-        <v>2604.403602289788</v>
+        <v>1572.164517693149</v>
       </c>
     </row>
     <row r="9">
@@ -4878,10 +4878,10 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031477</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>739.2385409879452</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="C10" t="n">
-        <v>570.3023580600383</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="D10" t="n">
-        <v>420.1857186477025</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="E10" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F10" t="n">
-        <v>125.382677567399</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962286</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372932</v>
+        <v>176.6457242372933</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
@@ -4987,25 +4987,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T10" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="U10" t="n">
-        <v>920.8870058181849</v>
+        <v>440.0982547706548</v>
       </c>
       <c r="V10" t="n">
-        <v>920.8870058181849</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="W10" t="n">
-        <v>920.8870058181849</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="X10" t="n">
-        <v>920.8870058181849</v>
+        <v>185.4137665647679</v>
       </c>
       <c r="Y10" t="n">
-        <v>920.8870058181849</v>
+        <v>185.4137665647679</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168625</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075814</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068014</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273916</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797191</v>
+        <v>245.230692780394</v>
       </c>
       <c r="K12" t="n">
-        <v>427.7414352191926</v>
+        <v>579.1554649516149</v>
       </c>
       <c r="L12" t="n">
-        <v>923.0670414349515</v>
+        <v>634.5603720565513</v>
       </c>
       <c r="M12" t="n">
-        <v>1520.445529061504</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N12" t="n">
-        <v>2148.043492616111</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>702.4944101284095</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="C13" t="n">
-        <v>533.5582272005026</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J13" t="n">
-        <v>140.7528025687997</v>
+        <v>140.7528025687998</v>
       </c>
       <c r="K13" t="n">
-        <v>296.7657364131323</v>
+        <v>296.7657364131326</v>
       </c>
       <c r="L13" t="n">
-        <v>526.3143760629337</v>
+        <v>526.3143760629341</v>
       </c>
       <c r="M13" t="n">
-        <v>771.5995144936172</v>
+        <v>771.5995144936178</v>
       </c>
       <c r="N13" t="n">
-        <v>1018.909846477608</v>
+        <v>1018.909846477609</v>
       </c>
       <c r="O13" t="n">
-        <v>1227.02787748437</v>
+        <v>1227.027877484371</v>
       </c>
       <c r="P13" t="n">
-        <v>1386.046835377028</v>
+        <v>1386.046835377029</v>
       </c>
       <c r="Q13" t="n">
-        <v>1440.555541309953</v>
+        <v>1440.555541309954</v>
       </c>
       <c r="R13" t="n">
-        <v>1373.509837562356</v>
+        <v>1373.509837562357</v>
       </c>
       <c r="S13" t="n">
-        <v>1190.65500321726</v>
+        <v>1190.655003217261</v>
       </c>
       <c r="T13" t="n">
-        <v>1190.65500321726</v>
+        <v>971.0535382402024</v>
       </c>
       <c r="U13" t="n">
-        <v>901.5797765614582</v>
+        <v>865.9078721888287</v>
       </c>
       <c r="V13" t="n">
-        <v>901.5797765614582</v>
+        <v>611.2233839829419</v>
       </c>
       <c r="W13" t="n">
-        <v>901.5797765614582</v>
+        <v>321.8062139459813</v>
       </c>
       <c r="X13" t="n">
-        <v>884.1428749586493</v>
+        <v>93.81666304796393</v>
       </c>
       <c r="Y13" t="n">
-        <v>884.1428749586493</v>
+        <v>93.81666304797193</v>
       </c>
     </row>
     <row r="14">
@@ -5276,22 +5276,22 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694709</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797189</v>
+        <v>577.3880777468473</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797189</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438167</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>642.4616796401317</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406111</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F16" t="n">
         <v>93.81666304797189</v>
@@ -5461,25 +5461,25 @@
         <v>1440.555541309953</v>
       </c>
       <c r="S16" t="n">
-        <v>1440.555541309953</v>
+        <v>1257.700706964858</v>
       </c>
       <c r="T16" t="n">
-        <v>1220.954076332895</v>
+        <v>1038.099241987799</v>
       </c>
       <c r="U16" t="n">
-        <v>931.8788496770924</v>
+        <v>749.0240153319969</v>
       </c>
       <c r="V16" t="n">
-        <v>931.8788496770924</v>
+        <v>494.3395271261101</v>
       </c>
       <c r="W16" t="n">
-        <v>642.4616796401317</v>
+        <v>275.4651278782097</v>
       </c>
       <c r="X16" t="n">
-        <v>642.4616796401317</v>
+        <v>275.4651278782097</v>
       </c>
       <c r="Y16" t="n">
-        <v>642.4616796401317</v>
+        <v>275.4651278782097</v>
       </c>
     </row>
     <row r="17">
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5549,13 +5549,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>262.7528459758788</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5704,19 +5704,19 @@
         <v>1038.099241987798</v>
       </c>
       <c r="U19" t="n">
-        <v>792.4533555623318</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="V19" t="n">
-        <v>792.4533555623318</v>
+        <v>749.0240153319962</v>
       </c>
       <c r="W19" t="n">
-        <v>792.4533555623318</v>
+        <v>711.5349760174263</v>
       </c>
       <c r="X19" t="n">
-        <v>792.4533555623318</v>
+        <v>483.5454251194089</v>
       </c>
       <c r="Y19" t="n">
-        <v>571.6607764188008</v>
+        <v>262.7528459758788</v>
       </c>
     </row>
     <row r="20">
@@ -5750,25 +5750,25 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852255</v>
@@ -5786,10 +5786,10 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
         <v>3094.515198591809</v>
@@ -5826,28 +5826,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1098.667160263527</v>
+        <v>395.1403935606704</v>
       </c>
       <c r="C22" t="n">
-        <v>929.7309773356195</v>
+        <v>395.1403935606704</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232838</v>
+        <v>245.0237541483347</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408906</v>
+        <v>97.11066056594161</v>
       </c>
       <c r="F22" t="n">
-        <v>484.8112968429803</v>
+        <v>97.11066056594161</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5917,43 +5917,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>1129.437033731411</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1546.84690539142</v>
+        <v>1546.846905391416</v>
       </c>
       <c r="O22" t="n">
-        <v>1916.376186100405</v>
+        <v>1916.376186100401</v>
       </c>
       <c r="P22" t="n">
-        <v>2209.051641673963</v>
+        <v>2209.05164167396</v>
       </c>
       <c r="Q22" t="n">
-        <v>2328.249876400863</v>
+        <v>2328.24987640086</v>
       </c>
       <c r="R22" t="n">
-        <v>2261.204172653265</v>
+        <v>2261.204172653262</v>
       </c>
       <c r="S22" t="n">
-        <v>2078.34933830817</v>
+        <v>2078.349338308166</v>
       </c>
       <c r="T22" t="n">
-        <v>2018.172981791116</v>
+        <v>1858.747873331107</v>
       </c>
       <c r="U22" t="n">
-        <v>1729.097755135313</v>
+        <v>1569.672646675305</v>
       </c>
       <c r="V22" t="n">
-        <v>1729.097755135313</v>
+        <v>1314.988158469418</v>
       </c>
       <c r="W22" t="n">
-        <v>1729.097755135313</v>
+        <v>1025.570988432458</v>
       </c>
       <c r="X22" t="n">
-        <v>1501.108204237296</v>
+        <v>797.5814375344403</v>
       </c>
       <c r="Y22" t="n">
-        <v>1280.315625093766</v>
+        <v>576.7888583909101</v>
       </c>
     </row>
     <row r="23">
@@ -5969,7 +5969,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
         <v>1204.759558406469</v>
@@ -5987,22 +5987,22 @@
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
         <v>4194.413870694707</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,31 +6063,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245706</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>315.9123021921482</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>913.2907898187001</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327636</v>
+        <v>580.8993044876675</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048567</v>
+        <v>411.9631215597606</v>
       </c>
       <c r="D25" t="n">
-        <v>530.3315352860773</v>
+        <v>261.8464821474248</v>
       </c>
       <c r="E25" t="n">
-        <v>382.4184417036842</v>
+        <v>113.9333885650317</v>
       </c>
       <c r="F25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6160,37 +6160,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.286391947398</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741511</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704551</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806533</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630033</v>
+        <v>762.5477693179072</v>
       </c>
     </row>
     <row r="26">
@@ -6215,28 +6215,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6303,28 +6303,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L27" t="n">
-        <v>923.0670414349511</v>
+        <v>634.5603720565526</v>
       </c>
       <c r="M27" t="n">
-        <v>1520.445529061503</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,19 +6358,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>734.6461798836013</v>
+        <v>513.8536007400699</v>
       </c>
       <c r="C28" t="n">
-        <v>565.7099969556945</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D28" t="n">
-        <v>415.5933575433587</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E28" t="n">
-        <v>267.6802639609656</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>120.7903164630552</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
         <v>93.81666304797187</v>
@@ -6391,43 +6391,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854705</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648818</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611857</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138397</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>695.5020655703096</v>
       </c>
     </row>
     <row r="29">
@@ -6449,16 +6449,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111715</v>
@@ -6476,7 +6476,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,19 +6537,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K30" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L30" t="n">
-        <v>93.81666304797187</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M30" t="n">
-        <v>691.1951506745238</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N30" t="n">
         <v>1307.627092998424</v>
@@ -6595,19 +6595,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>801.6918836311989</v>
+        <v>513.8536007400726</v>
       </c>
       <c r="C31" t="n">
-        <v>632.7557007032921</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7557007032921</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8426071208989</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>337.9526596229886</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
         <v>175.9033664000583</v>
@@ -6628,43 +6628,43 @@
         <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P31" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.46108051051</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.28419561186</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614387</v>
+        <v>916.2946447138424</v>
       </c>
       <c r="Y31" t="n">
-        <v>983.3403484614387</v>
+        <v>695.5020655703123</v>
       </c>
     </row>
     <row r="32">
@@ -6689,37 +6689,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
@@ -6734,13 +6734,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6777,19 +6777,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1700.311647517212</v>
       </c>
       <c r="O33" t="n">
         <v>1859.536823237711</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
         <v>93.81666304797187</v>
@@ -6880,28 +6880,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2044.506784258106</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1789.822296052219</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1500.405126015258</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1272.415575117241</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6911,43 +6911,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,31 +6956,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7008,28 +7008,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>1552.432392194325</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2104.342122433612</v>
       </c>
       <c r="P36" t="n">
         <v>2283.159972732779</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J37" t="n">
         <v>174.0526814782957</v>
@@ -7123,22 +7123,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7160,49 +7160,49 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168602</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S38" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T38" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
         <v>4151.812499466572</v>
@@ -7245,34 +7245,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908938</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797186</v>
+        <v>94.65038286230612</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
         <v>174.0526814782957</v>
@@ -7354,28 +7354,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7397,31 +7397,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7488,28 +7488,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2296.093381168253</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2529.355041543135</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E43" t="n">
-        <v>402.7245934908939</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7591,28 +7591,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7634,34 +7634,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7725,28 +7725,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7789,13 +7789,13 @@
         <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -9565,10 +9565,10 @@
         <v>162.4747015415544</v>
       </c>
       <c r="M22" t="n">
-        <v>58.59733042520537</v>
+        <v>178.5096609094456</v>
       </c>
       <c r="N22" t="n">
-        <v>171.8177168444618</v>
+        <v>51.9053863602183</v>
       </c>
       <c r="O22" t="n">
         <v>163.0416663658825</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-3.402303949491753e-14</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23413,16 +23413,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23431,10 +23431,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856549</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,19 +23467,19 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>182.0902649983842</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>208.4471228022563</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>64.55873836010053</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -23701,7 +23701,7 @@
         <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,10 +23710,10 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>69.83734308116962</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23902,10 +23902,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23944,16 +23944,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>42.99504682803217</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>249.4088494151668</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>162.2630807494788</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24178,16 +24178,16 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>157.8308573754051</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24367,19 +24367,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>84.77391660562071</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>125.505489761042</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24412,7 +24412,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24601,19 +24601,19 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>45.44677382459447</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>138.8202214113363</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -24667,7 +24667,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,19 +24838,19 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>146.8157004124949</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>5.095338001567882</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25081,16 +25081,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>81.26583631856553</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,7 +25129,7 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>145.1398665102892</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25315,19 +25315,19 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823101</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462286</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -25363,7 +25363,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>80.44045370237463</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25606,7 +25606,7 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25789,19 +25789,19 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459309</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25831,7 +25831,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -26029,16 +26029,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>63.36835372228749</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>959462.0866949384</v>
+        <v>959462.0866949385</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>959462.0866949384</v>
+        <v>959462.0866949382</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>959462.0866949384</v>
+        <v>959462.0866949382</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>998749.2321801386</v>
+        <v>998749.2321801382</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1004003.183745565</v>
+        <v>1004003.183745566</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1004003.183745566</v>
+        <v>1004003.183745565</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1004003.183745565</v>
+        <v>1004003.183745566</v>
       </c>
     </row>
     <row r="15">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>431046.9291787486</v>
+        <v>431046.9291787487</v>
       </c>
       <c r="C2" t="n">
-        <v>431046.9291787487</v>
+        <v>431046.9291787488</v>
       </c>
       <c r="D2" t="n">
         <v>431046.9291787487</v>
       </c>
       <c r="E2" t="n">
+        <v>411198.0371549733</v>
+      </c>
+      <c r="F2" t="n">
         <v>411198.0371549734</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>411198.0371549733</v>
       </c>
-      <c r="G2" t="n">
-        <v>411198.0371549734</v>
-      </c>
       <c r="H2" t="n">
-        <v>422271.1362908974</v>
+        <v>422271.1362908973</v>
       </c>
       <c r="I2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="J2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="K2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372534</v>
       </c>
       <c r="L2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="M2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372531</v>
       </c>
       <c r="N2" t="n">
-        <v>423751.9648372533</v>
+        <v>423751.9648372532</v>
       </c>
       <c r="O2" t="n">
         <v>423751.9648372532</v>
       </c>
       <c r="P2" t="n">
-        <v>423751.9648372532</v>
+        <v>423751.9648372533</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073561</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,7 +26387,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972774</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26396,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551199</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,13 +26418,13 @@
         <v>93596.74410405257</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405257</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
         <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>761.3882086835455</v>
+        <v>761.3882086835457</v>
       </c>
       <c r="F4" t="n">
         <v>761.3882086835454</v>
@@ -26433,7 +26433,7 @@
         <v>761.3882086835451</v>
       </c>
       <c r="H4" t="n">
-        <v>14243.58217073094</v>
+        <v>14243.58217073091</v>
       </c>
       <c r="I4" t="n">
         <v>16046.58397189197</v>
@@ -26445,13 +26445,13 @@
         <v>16046.58397189197</v>
       </c>
       <c r="L4" t="n">
-        <v>16046.58397189199</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="M4" t="n">
         <v>16046.58397189197</v>
       </c>
       <c r="N4" t="n">
-        <v>16046.58397189201</v>
+        <v>16046.58397189197</v>
       </c>
       <c r="O4" t="n">
         <v>16046.58397189197</v>
@@ -26522,46 +26522,46 @@
         <v>-1099228.50121429</v>
       </c>
       <c r="C6" t="n">
-        <v>229516.2445133029</v>
+        <v>229516.244513303</v>
       </c>
       <c r="D6" t="n">
         <v>229516.2445133029</v>
       </c>
       <c r="E6" t="n">
-        <v>-16098.34268497303</v>
+        <v>-16192.8612184201</v>
       </c>
       <c r="F6" t="n">
-        <v>309314.1191223827</v>
+        <v>309219.6005889367</v>
       </c>
       <c r="G6" t="n">
-        <v>309314.1191223831</v>
+        <v>309219.6005889365</v>
       </c>
       <c r="H6" t="n">
-        <v>306905.0242962593</v>
+        <v>306863.2348063171</v>
       </c>
       <c r="I6" t="n">
-        <v>306582.8510414541</v>
+        <v>306548.1131160184</v>
       </c>
       <c r="J6" t="n">
-        <v>89051.64864417679</v>
+        <v>89016.91071874098</v>
       </c>
       <c r="K6" t="n">
-        <v>306582.8510414541</v>
+        <v>306548.1131160186</v>
       </c>
       <c r="L6" t="n">
-        <v>306582.8510414541</v>
+        <v>306548.1131160184</v>
       </c>
       <c r="M6" t="n">
-        <v>221527.8231059422</v>
+        <v>221493.0851805064</v>
       </c>
       <c r="N6" t="n">
-        <v>306582.8510414541</v>
+        <v>306548.1131160184</v>
       </c>
       <c r="O6" t="n">
-        <v>306582.8510414541</v>
+        <v>306548.1131160184</v>
       </c>
       <c r="P6" t="n">
-        <v>306582.8510414541</v>
+        <v>306548.1131160185</v>
       </c>
     </row>
   </sheetData>
@@ -26744,7 +26744,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341675</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26793,7 +26793,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483764</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973564</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,13 +27376,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>358.1123434383891</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>310.4011377631405</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.882938249764265e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>103.5120427243785</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,13 +27549,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27582,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>157.2154783432246</v>
       </c>
     </row>
     <row r="5">
@@ -27616,25 +27616,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>3.032130797457228</v>
       </c>
       <c r="H5" t="n">
-        <v>199.4177744651545</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27825,16 +27825,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>164.6516405111451</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>164.340480380167</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,10 +27850,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>84.51310991089031</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,22 +27901,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>57.2383093922877</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,22 +28008,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>49.53418746736922</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>107.7439527351648</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -28059,16 +28059,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28150,7 +28150,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>-2.387423592153937e-12</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>7.918288247310557e-12</v>
       </c>
     </row>
     <row r="14">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28482,10 +28482,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>1.885306725550132e-12</v>
       </c>
       <c r="C16" t="n">
-        <v>1.885306725550132e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29092,7 +29092,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -29250,7 +29250,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>-8.483880264975597e-13</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29700,7 +29700,7 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>1.131184035330079e-12</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -29803,7 +29803,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -30001,7 +30001,7 @@
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -30159,7 +30159,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-4.713266813875332e-12</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>7.389644451905042e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -31601,10 +31601,10 @@
         <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026436</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
         <v>508.9565619138796</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348437</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135344</v>
       </c>
       <c r="I11" t="n">
         <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663285</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.544175081758</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175681</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460034</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236513</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669226</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043728</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.0736191065153</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078748</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659451</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521102</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.307619600775</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420757</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422589</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>194.518932411123</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862126</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.279049007179</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7051287319844</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214701</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485293</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418562</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742442</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937735</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275956</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189905</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.93245966121572</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869279</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796263</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.602080235518</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588156</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392048</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.493960610679</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.676771792006</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417316</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515929</v>
       </c>
       <c r="R13" t="n">
-        <v>110.9181446670478</v>
+        <v>110.9181446670479</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532769</v>
       </c>
       <c r="T13" t="n">
-        <v>10.54013910099322</v>
+        <v>10.54013910099323</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467223</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32075,19 +32075,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622656</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>405.6377363145765</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437245</v>
@@ -32099,7 +32099,7 @@
         <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.6544928674244</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,25 +32318,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>263.7590256391499</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32546,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32555,22 +32555,22 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32783,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>326.7634969305194</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>209.9499448422525</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32804,13 +32804,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33023,31 +33023,31 @@
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>196.3041720119</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>616.9033572954396</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33205,7 +33205,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
         <v>125.31755462929</v>
@@ -33257,22 +33257,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>258.3858318060507</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>754.0002396832328</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33497,22 +33497,22 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>303.4297552732313</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33652,7 +33652,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33731,19 +33731,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
@@ -33752,7 +33752,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>314.5984986256103</v>
       </c>
       <c r="Q36" t="n">
         <v>375.599612848529</v>
@@ -33898,7 +33898,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M38" t="n">
         <v>965.6463440175675</v>
@@ -33971,7 +33971,7 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>465.217062384076</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34208,13 +34208,13 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>169.6252075171357</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34384,7 +34384,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.820449923651</v>
       </c>
       <c r="Q44" t="n">
         <v>593.8732233669223</v>
@@ -34445,7 +34445,7 @@
         <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
@@ -34454,22 +34454,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35249,10 +35249,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597692</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
         <v>370.4021821340054</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317398</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.7087110396423</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367775</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462694</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902954</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193523</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243166</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683818</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924731</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902406</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774986</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.158224775409</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678999</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>55.96455263124883</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641942</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238457</v>
       </c>
       <c r="O12" t="n">
-        <v>409.1088842875399</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>427.9021712071399</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625077</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789222</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>47.41024194023011</v>
+        <v>47.41024194023016</v>
       </c>
       <c r="K13" t="n">
-        <v>157.5888220649825</v>
+        <v>157.5888220649826</v>
       </c>
       <c r="L13" t="n">
-        <v>231.8673127775771</v>
+        <v>231.8673127775773</v>
       </c>
       <c r="M13" t="n">
-        <v>247.7627660915996</v>
+        <v>247.7627660915997</v>
       </c>
       <c r="N13" t="n">
-        <v>249.8084161454457</v>
+        <v>249.8084161454458</v>
       </c>
       <c r="O13" t="n">
-        <v>210.2202333401631</v>
+        <v>210.2202333401632</v>
       </c>
       <c r="P13" t="n">
-        <v>160.6252099925839</v>
+        <v>160.625209992584</v>
       </c>
       <c r="Q13" t="n">
-        <v>55.05929892214695</v>
+        <v>55.05929892214704</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,19 +35723,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402472</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>274.2960242312432</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992801</v>
@@ -35747,7 +35747,7 @@
         <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,25 +35966,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>132.4173135558165</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36194,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36203,22 +36203,22 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36285,10 +36285,10 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>306.3600965168048</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>301.7138025056639</v>
       </c>
       <c r="O22" t="n">
         <v>373.2618997060454</v>
@@ -36431,16 +36431,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>71.39556506237828</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36452,13 +36452,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36528,7 +36528,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060441</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>57.74979223202579</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>485.5616452121063</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36759,7 +36759,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010434</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
@@ -36853,7 +36853,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,22 +36905,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>120.5443928316917</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>622.6585275998996</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36996,7 +36996,7 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010463</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
@@ -37145,22 +37145,22 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>160.8335108287869</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37300,7 +37300,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37379,19 +37379,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
@@ -37400,7 +37400,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>180.6240912112801</v>
       </c>
       <c r="Q36" t="n">
         <v>235.6178387625075</v>
@@ -37546,7 +37546,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M38" t="n">
         <v>735.3001107902948</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>322.6208179396315</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37856,13 +37856,13 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>23.94570355317173</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38093,7 +38093,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
@@ -38102,22 +38102,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
